--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3123.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3123.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.456880445396776</v>
+        <v>1.60121762752533</v>
       </c>
       <c r="B1">
-        <v>2.029023974965167</v>
+        <v>1.967608690261841</v>
       </c>
       <c r="C1">
-        <v>3.608407021376301</v>
+        <v>2.135896444320679</v>
       </c>
       <c r="D1">
-        <v>4.849977209771773</v>
+        <v>2.460945129394531</v>
       </c>
       <c r="E1">
-        <v>0.8061341402765247</v>
+        <v>3.271326065063477</v>
       </c>
     </row>
   </sheetData>
